--- a/cost/example-cost-estimation.xlsx
+++ b/cost/example-cost-estimation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajeev\OneDrive\Documents\Course\Aurora\Workspace\v1\Amazon-RDS-Aurora-v1\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16351E0-0409-4A8A-AD24-147950FA67DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2297D2A1-4DF3-42AD-8037-42C33BEE5E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{2C5E73B8-A883-4BD7-A9AB-688107F145F6}"/>
+    <workbookView xWindow="-28920" yWindow="120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{2C5E73B8-A883-4BD7-A9AB-688107F145F6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Backups &amp; snapshots" sheetId="1" r:id="rId1"/>
+    <sheet name="IO Costs" sheetId="2" r:id="rId1"/>
+    <sheet name="Backups &amp; snapshots" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Day#</t>
   </si>
@@ -54,9 +55,6 @@
     <t>Backup cost in region</t>
   </si>
   <si>
-    <t>$ in us-east-2</t>
-  </si>
-  <si>
     <t>Number of days/month</t>
   </si>
   <si>
@@ -91,16 +89,35 @@
   </si>
   <si>
     <t>Same as automatic</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>This is a simplified cost ESTIMATION model and does not predict the actual costs incurred for backup storage</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Sheet shows just 1 month of calculation - annual cost will require expansion</t>
+  </si>
+  <si>
+    <t>In us-east-2</t>
+  </si>
+  <si>
+    <t>Assumption is that there are 4 manual snapshots in the month</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +140,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +185,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -185,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -207,6 +237,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,11 +556,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C888DF04-1584-4CD4-96C4-C8B5964D80EA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2570E69C-A846-451E-94D8-908268798D02}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,161 +584,169 @@
     <col min="3" max="3" width="47.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" style="13" customWidth="1"/>
     <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="68.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B2" s="8">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="E3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B4" s="22">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8">
-        <v>30</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8">
+        <v>30</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="D6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>300</v>
       </c>
-      <c r="C6" s="2">
-        <f>(B6*$B$3)/$B$4</f>
+      <c r="C7" s="2">
+        <f>(B7*$B$4)/$B$5</f>
         <v>0.21000000000000002</v>
       </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16">
-        <f>C6*($B$4-A6+1)*D6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <f>C7*($B$5-A7+1)*D7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="B7">
-        <f>B6+$B$2</f>
+      <c r="B8">
+        <f>B7+$B$3</f>
         <v>301</v>
       </c>
-      <c r="C7" s="2">
-        <f>(B7*$B$3)/$B$4</f>
+      <c r="C8" s="2">
+        <f>(B8*$B$4)/$B$5</f>
         <v>0.21070000000000003</v>
       </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
-        <f t="shared" ref="E7:E11" si="0">C7*($B$4-A7+1)*D7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" ref="E8:E12" si="0">C8*($B$5-A8+1)*D8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>3</v>
       </c>
-      <c r="B8">
-        <f t="shared" ref="B8:B35" si="1">B7+$B$2</f>
+      <c r="B9">
+        <f t="shared" ref="B9:B36" si="1">B8+$B$3</f>
         <v>302</v>
       </c>
-      <c r="C8" s="2">
-        <f>(B8*$B$3)/$B$4</f>
+      <c r="C9" s="2">
+        <f>(B9*$B$4)/$B$5</f>
         <v>0.2114</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="1"/>
-        <v>303</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" ref="C9:C35" si="2">(B9*$B$3)/$B$4</f>
-        <v>0.21210000000000001</v>
       </c>
       <c r="D9" s="13">
         <v>0</v>
@@ -698,17 +756,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="2"/>
-        <v>0.21280000000000002</v>
+        <f>(B10*$B$4)/$B$5</f>
+        <v>0.21210000000000001</v>
       </c>
       <c r="D10" s="13">
         <v>0</v>
@@ -718,17 +776,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="2"/>
-        <v>0.2135</v>
+        <f>(B11*$B$4)/$B$5</f>
+        <v>0.21280000000000002</v>
       </c>
       <c r="D11" s="13">
         <v>0</v>
@@ -738,97 +796,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>305</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ref="C10:C36" si="2">(B12*$B$4)/$B$5</f>
+        <v>0.2135</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B13" s="5">
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C13" s="6">
         <f t="shared" si="2"/>
         <v>0.2142</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D13" s="14">
         <v>1</v>
       </c>
-      <c r="E12" s="6">
-        <f>C12*($B$4-A12+1)*D12</f>
-        <v>5.1408000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="E13" s="6">
+        <f>C13*(MAX(0,$B$5-A13+1-$B$2))*D13</f>
+        <v>4.7123999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>8</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <f t="shared" si="1"/>
         <v>307</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <f t="shared" si="2"/>
         <v>0.21490000000000001</v>
       </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16">
-        <f>C13*($B$4-A13+1)*D13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <f>C14*($B$5-A14+1)*D14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>9</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <f t="shared" si="1"/>
         <v>308</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <f t="shared" si="2"/>
         <v>0.21559999999999999</v>
       </c>
-      <c r="D14" s="13">
-        <v>0</v>
-      </c>
-      <c r="E14" s="16">
-        <f t="shared" ref="E14:E18" si="3">C14*($B$4-A14+1)*D14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" ref="E15:E19" si="3">C15*($B$5-A15+1)*D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>10</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <f t="shared" si="1"/>
         <v>309</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <f t="shared" si="2"/>
         <v>0.21630000000000002</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="1"/>
-        <v>310</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="2"/>
-        <v>0.21700000000000003</v>
       </c>
       <c r="D16" s="13">
         <v>0</v>
@@ -840,15 +898,15 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="2"/>
-        <v>0.21770000000000003</v>
+        <v>0.21700000000000003</v>
       </c>
       <c r="D17" s="13">
         <v>0</v>
@@ -860,15 +918,15 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="2"/>
-        <v>0.21840000000000001</v>
+        <v>0.21770000000000003</v>
       </c>
       <c r="D18" s="13">
         <v>0</v>
@@ -879,96 +937,96 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.21840000000000001</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>14</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B20" s="5">
         <f t="shared" si="1"/>
         <v>313</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C20" s="6">
         <f t="shared" si="2"/>
         <v>0.21910000000000002</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D20" s="14">
         <v>1</v>
       </c>
-      <c r="E19" s="6">
-        <f>C19*($B$4-A19+1)*D19</f>
-        <v>3.7247000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>15</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="1"/>
-        <v>314</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="2"/>
-        <v>0.21980000000000002</v>
-      </c>
-      <c r="D20" s="13">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
-        <f>C20*($B$4-A20+1)*D20</f>
-        <v>0</v>
+      <c r="E20" s="6">
+        <f>C20*(MAX(0,$B$5-A20+1-$B$2))*D20</f>
+        <v>3.2865000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="2"/>
-        <v>0.2205</v>
+        <v>0.21980000000000002</v>
       </c>
       <c r="D21" s="13">
         <v>0</v>
       </c>
       <c r="E21" s="16">
-        <f t="shared" ref="E21:E25" si="4">C21*($B$4-A21+1)*D21</f>
+        <f>C21*($B$5-A21+1)*D21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="2"/>
-        <v>0.22120000000000001</v>
+        <v>0.2205</v>
       </c>
       <c r="D22" s="13">
         <v>0</v>
       </c>
       <c r="E22" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E22:E26" si="4">C22*($B$5-A22+1)*D22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="2"/>
-        <v>0.22190000000000001</v>
+        <v>0.22120000000000001</v>
       </c>
       <c r="D23" s="13">
         <v>0</v>
@@ -980,15 +1038,15 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="2"/>
-        <v>0.22260000000000002</v>
+        <v>0.22190000000000001</v>
       </c>
       <c r="D24" s="13">
         <v>0</v>
@@ -1000,15 +1058,15 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="2"/>
-        <v>0.22330000000000003</v>
+        <v>0.22260000000000002</v>
       </c>
       <c r="D25" s="13">
         <v>0</v>
@@ -1019,96 +1077,96 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>319</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="2"/>
+        <v>0.22330000000000003</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>21</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B27" s="5">
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C27" s="6">
         <f t="shared" si="2"/>
         <v>0.22400000000000003</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="E26" s="6">
-        <f>C26*($B$4-A26+1)*D26</f>
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>22</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="1"/>
-        <v>321</v>
-      </c>
-      <c r="C27" s="2">
-        <f t="shared" si="2"/>
-        <v>0.22470000000000001</v>
-      </c>
-      <c r="D27" s="13">
-        <v>0</v>
-      </c>
-      <c r="E27" s="16">
-        <f>C27*($B$4-A27+1)*D27</f>
-        <v>0</v>
+      <c r="E27" s="6">
+        <f>C27*(MAX(0,$B$5-A27+1-$B$2))*D27</f>
+        <v>1.7920000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="2"/>
-        <v>0.22540000000000002</v>
+        <v>0.22470000000000001</v>
       </c>
       <c r="D28" s="13">
         <v>0</v>
       </c>
       <c r="E28" s="16">
-        <f t="shared" ref="E28:E33" si="5">C28*($B$4-A28+1)*D28</f>
+        <f>C28*($B$5-A28+1)*D28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="2"/>
-        <v>0.22610000000000002</v>
+        <v>0.22540000000000002</v>
       </c>
       <c r="D29" s="13">
         <v>0</v>
       </c>
       <c r="E29" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E29:E34" si="5">C29*($B$5-A29+1)*D29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="2"/>
-        <v>0.2268</v>
+        <v>0.22610000000000002</v>
       </c>
       <c r="D30" s="13">
         <v>0</v>
@@ -1120,15 +1178,15 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="2"/>
-        <v>0.22750000000000001</v>
+        <v>0.2268</v>
       </c>
       <c r="D31" s="13">
         <v>0</v>
@@ -1140,15 +1198,15 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="2"/>
-        <v>0.22820000000000001</v>
+        <v>0.22750000000000001</v>
       </c>
       <c r="D32" s="13">
         <v>0</v>
@@ -1159,91 +1217,111 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33">
+        <v>27</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>326</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="2"/>
+        <v>0.22820000000000001</v>
+      </c>
+      <c r="D33" s="13">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>28</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B34" s="5">
         <f t="shared" si="1"/>
         <v>327</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C34" s="6">
         <f t="shared" si="2"/>
         <v>0.22889999999999999</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D34" s="14">
         <v>1</v>
       </c>
-      <c r="E33" s="6">
-        <f t="shared" si="5"/>
-        <v>0.68669999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="E34" s="6">
+        <f>C34*(MAX(0,$B$5-A34+1-$B$2))*D34</f>
+        <v>0.22889999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>29</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <f t="shared" si="1"/>
         <v>328</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C35" s="2">
         <f t="shared" si="2"/>
         <v>0.22960000000000003</v>
       </c>
-      <c r="D34" s="13">
-        <v>0</v>
-      </c>
-      <c r="E34" s="16">
-        <f>C34*($B$4-A34+1)*D34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
+      <c r="D35" s="13">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
+        <f>C35*($B$5-A35+1)*D35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
         <v>30</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B36" s="17">
         <f t="shared" si="1"/>
         <v>329</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C36" s="16">
         <f t="shared" si="2"/>
         <v>0.23030000000000003</v>
       </c>
-      <c r="D35" s="18">
-        <v>0</v>
-      </c>
-      <c r="E35" s="16">
-        <f>C35*($B$4-A35+1)*D35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="3">
-        <f>SUM(C6:C35)*($B$1-1)</f>
+      <c r="D36" s="18">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <f>C36*($B$5-A36+1)*D36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="3">
+        <f>SUM(C7:C36)*($B$2-1)</f>
         <v>6.6045000000000016</v>
       </c>
-      <c r="D36" s="15">
-        <f>SUM(D6:D35)</f>
+      <c r="D37" s="15">
+        <f>SUM(D7:D36)</f>
         <v>4</v>
       </c>
-      <c r="E36" s="3">
-        <f>SUM(E6:E35)</f>
-        <v>11.792200000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="3">
-        <f>C36+E36</f>
-        <v>18.396700000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E37" s="3">
+        <f>SUM(E7:E36)</f>
+        <v>10.0198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="3">
+        <f>C37+E37</f>
+        <v>16.624300000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
